--- a/RailsClient/uploadfiles/template/导入库存模板.xlsx
+++ b/RailsClient/uploadfiles/template/导入库存模板.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>仓库号</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>库位号</t>
-  </si>
-  <si>
-    <t>包装号</t>
   </si>
   <si>
     <t>唯一码</t>
@@ -139,14 +136,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
-      <selection activeCell="B5" activeCellId="0" pane="topLeft" sqref="B5"/>
+      <selection activeCell="D5" activeCellId="0" pane="topLeft" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.9411764705882"/>
+    <col collapsed="false" hidden="false" max="1023" min="1" style="1" width="11"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.35" outlineLevel="0" r="1">
@@ -173,9 +171,6 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -201,7 +196,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.9411764705882"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -226,7 +221,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.9411764705882"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/RailsClient/uploadfiles/template/导入库存模板.xlsx
+++ b/RailsClient/uploadfiles/template/导入库存模板.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>仓库号</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>供应商</t>
   </si>
 </sst>
 </file>
@@ -136,15 +139,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
-      <selection activeCell="D5" activeCellId="0" pane="topLeft" sqref="D5"/>
+      <selection activeCell="I1" activeCellId="0" pane="topLeft" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1023" min="1" style="1" width="11"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11"/>
+    <col collapsed="false" hidden="false" max="1023" min="1" style="1" width="11.0588235294118"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.35" outlineLevel="0" r="1">
@@ -171,6 +173,9 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -195,9 +200,6 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -220,9 +222,6 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/RailsClient/uploadfiles/template/导入库存模板.xlsx
+++ b/RailsClient/uploadfiles/template/导入库存模板.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>仓库号</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>供应商</t>
+  </si>
+  <si>
+    <t>批次号</t>
   </si>
 </sst>
 </file>
@@ -139,14 +142,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
-      <selection activeCell="I1" activeCellId="0" pane="topLeft" sqref="I1"/>
+      <selection activeCell="I7" activeCellId="0" pane="topLeft" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1023" min="1" style="1" width="11.0588235294118"/>
+    <col collapsed="false" hidden="false" max="1023" min="1" style="1" width="11.1176470588235"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.54901960784314"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.35" outlineLevel="0" r="1">
@@ -176,6 +180,9 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -200,6 +207,9 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.54901960784314"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -222,6 +232,9 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.54901960784314"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/RailsClient/uploadfiles/template/导入库存模板.xlsx
+++ b/RailsClient/uploadfiles/template/导入库存模板.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>仓库号</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>库位号</t>
-  </si>
-  <si>
-    <t>唯一码</t>
   </si>
   <si>
     <t>员工号</t>
@@ -136,15 +133,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100">
-      <selection activeCell="D5" activeCellId="0" pane="topLeft" sqref="D5"/>
+      <selection activeCell="F1" activeCellId="0" pane="topLeft" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1023" min="1" style="1" width="11"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="11"/>
+    <col collapsed="false" hidden="false" max="1022" min="1" style="1" width="11.0588235294118"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.35" outlineLevel="0" r="1">
@@ -168,9 +164,6 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -195,9 +188,6 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -220,9 +210,6 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11"/>
-  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
